--- a/i_codebooks/D5_DU_for_Template_1.xlsx
+++ b/i_codebooks/D5_DU_for_Template_1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8784"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8784" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="107">
   <si>
     <t>medatata_name</t>
   </si>
@@ -111,12 +111,6 @@
     <t>Primary key</t>
   </si>
   <si>
-    <t>n1_1 (p1_1)</t>
-  </si>
-  <si>
-    <t>n1_2 (p1_2)</t>
-  </si>
-  <si>
     <t>n2_1 (p2_1)</t>
   </si>
   <si>
@@ -124,12 +118,6 @@
   </si>
   <si>
     <t>n1_1</t>
-  </si>
-  <si>
-    <t>count per number_of_pregnancies</t>
-  </si>
-  <si>
-    <t>n1_3 (p1_3)</t>
   </si>
   <si>
     <t>n2_3 (p2_3)</t>
@@ -341,6 +329,203 @@
   </si>
   <si>
     <t>numbers to be included in Template 1:  Description of the time period between 2 pregnancies in the pregnancy cohort and in the MS-pregnancy cohort (ref: DP3_SAP_DU_MS_V2.2)</t>
+  </si>
+  <si>
+    <t>3 strata: 
+1) all pregnancies in D3_DU_PREGNANCY-COHORT_variables
+2) pregnancies in D3_DU_PREGNANCY-COHORT_variables with pregnancy_with_MS == 1
+3) pregnancies in D3_DU_PREGNANCY-COHORT_variables with MS_developed_during_pregnancy == 1</t>
+  </si>
+  <si>
+    <t>itself</t>
+  </si>
+  <si>
+    <t>1 = all pregnancies in D3_DU_PREGNANCY-COHORT_variables
+2 = pregnancies in D3_DU_PREGNANCY-COHORT_variables with pregnancy_with_MS == 1
+3 = pregnancies in D3_DU_PREGNANCY-COHORT_variables with MS_developed_during_pregnancy == 1</t>
+  </si>
+  <si>
+    <t>n1_</t>
+  </si>
+  <si>
+    <t>column_identifier</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>n3_1 (p3_1)</t>
+  </si>
+  <si>
+    <t>n3_2 (p3_2)</t>
+  </si>
+  <si>
+    <t>n3_3 (p3_3)</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>n1_3</t>
+  </si>
+  <si>
+    <t>n1_2</t>
+  </si>
+  <si>
+    <t>n2_</t>
+  </si>
+  <si>
+    <t>p2_</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>count number of records in the stratum column_identifier</t>
+  </si>
+  <si>
+    <t>number of pregnancies in the stratum</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>100*n2_/n1_</t>
+  </si>
+  <si>
+    <t>count number of records in the stratum column_identifier having number_of_pregnancies_in_the_study == 1</t>
+  </si>
+  <si>
+    <t>n3_</t>
+  </si>
+  <si>
+    <t>p3_</t>
+  </si>
+  <si>
+    <t>% of pregnancies of women with one single pregnancy in the study</t>
+  </si>
+  <si>
+    <t>number of pregnancies in the stratum from women with &gt; 1 pregnancy in the study</t>
+  </si>
+  <si>
+    <t>number of pregnancies in the stratum from women with one single pregnancy in the study</t>
+  </si>
+  <si>
+    <t>% of pregnancies from women with &gt; 1 pregnancy in the study</t>
+  </si>
+  <si>
+    <t>100*n3_/n1_</t>
+  </si>
+  <si>
+    <t>count number of records in the stratum column_identifier having number_of_pregnancies_in_the_study &gt; 1</t>
+  </si>
+  <si>
+    <t>n4_1 (p4_1)</t>
+  </si>
+  <si>
+    <t>n5_1 (p5_1)</t>
+  </si>
+  <si>
+    <t>n6_1 (p6_1)</t>
+  </si>
+  <si>
+    <t>n7_1 (p7_1)</t>
+  </si>
+  <si>
+    <t>n8_1 (p8_1)</t>
+  </si>
+  <si>
+    <t>n_4</t>
+  </si>
+  <si>
+    <t>p_4_</t>
+  </si>
+  <si>
+    <t>count number of records in the stratum column_identifier having number_of_pregnancies_in_the_study &gt; 1 &amp; categories_time_since_previous_pregnancy == 5</t>
+  </si>
+  <si>
+    <t>100*n4_/n3_</t>
+  </si>
+  <si>
+    <t>100*n5_/n3_</t>
+  </si>
+  <si>
+    <t>count number of records in the stratum column_identifier having number_of_pregnancies_in_the_study &gt; 1 &amp; categories_time_since_previous_pregnancy == 4</t>
+  </si>
+  <si>
+    <t>n_5_</t>
+  </si>
+  <si>
+    <t>p_5_</t>
+  </si>
+  <si>
+    <t>number of pregnancies in the stratum from women with &gt; 1 pregnancy in the study and with distance from the previous pregnancy more than 15 months</t>
+  </si>
+  <si>
+    <t>pregnancies from women with distance from the previous pregnancy more than 15 months as a % of pregnancies from women with &gt; 1 pregnancy in the study</t>
+  </si>
+  <si>
+    <t>number of pregnancies in the stratum from women with &gt; 1 pregnancy in the study and with distance from the previous pregnancy between 12 and 15 months</t>
+  </si>
+  <si>
+    <t>pregnancies from women with distance from the previous pregnancy between 12 and 15 months as a % of pregnancies from women with &gt; 1 pregnancy in the study</t>
+  </si>
+  <si>
+    <t>n_6_</t>
+  </si>
+  <si>
+    <t>p_6_</t>
+  </si>
+  <si>
+    <t>n_7_</t>
+  </si>
+  <si>
+    <t>p_7_</t>
+  </si>
+  <si>
+    <t>n_8_</t>
+  </si>
+  <si>
+    <t>p_8_</t>
+  </si>
+  <si>
+    <t>number of pregnancies in the stratum from women with &gt; 1 pregnancy in the study and with distance from the previous pregnancy between 6 and 12 months</t>
+  </si>
+  <si>
+    <t>pregnancies from women with distance from the previous pregnancy between 6 and 12 months as a % of pregnancies from women with &gt; 1 pregnancy in the study</t>
+  </si>
+  <si>
+    <t>number of pregnancies in the stratum from women with &gt; 1 pregnancy in the study and with distance from the previous pregnancy between 3 and 6 months</t>
+  </si>
+  <si>
+    <t>pregnancies from women with distance from the previous pregnancy between 3 and 6 months as a % of pregnancies from women with &gt; 1 pregnancy in the study</t>
+  </si>
+  <si>
+    <t>number of pregnancies in the stratum from women with &gt; 1 pregnancy in the study and with distance from the previous pregnancy less han 3 months</t>
+  </si>
+  <si>
+    <t>pregnancies from women with distance from the previous pregnancy lass than 3 months as a % of pregnancies from women with &gt; 1 pregnancy in the study</t>
+  </si>
+  <si>
+    <t>100*n6_/n3_</t>
+  </si>
+  <si>
+    <t>100*n7_/n3_</t>
+  </si>
+  <si>
+    <t>100*n8_/n3_</t>
+  </si>
+  <si>
+    <t>count number of records in the stratum column_identifier having number_of_pregnancies_in_the_study &gt; 1 &amp; categories_time_since_previous_pregnancy == 1</t>
+  </si>
+  <si>
+    <t>count number of records in the stratum column_identifier having number_of_pregnancies_in_the_study &gt; 1 &amp; categories_time_since_previous_pregnancy == 2</t>
+  </si>
+  <si>
+    <t>count number of records in the stratum column_identifier having number_of_pregnancies_in_the_study &gt; 1 &amp; categories_time_since_previous_pregnancy == 3</t>
+  </si>
+  <si>
+    <t>identifier of the column in the shell table Template 1</t>
   </si>
 </sst>
 </file>
@@ -709,7 +894,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -752,26 +937,23 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -790,6 +972,9 @@
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -812,6 +997,18 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1030,8 +1227,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -1070,7 +1267,7 @@
       <c r="V1" s="2"/>
     </row>
     <row r="2" spans="1:22" ht="15.6">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="19" t="s">
         <v>19</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -1102,7 +1299,7 @@
         <v>20</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -1125,9 +1322,12 @@
       <c r="U3" s="2"/>
       <c r="V3" s="2"/>
     </row>
-    <row r="4" spans="1:22" ht="15.6">
+    <row r="4" spans="1:22" ht="72">
       <c r="A4" s="8" t="s">
         <v>21</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>43</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -1154,7 +1354,9 @@
       <c r="A5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="11"/>
+      <c r="B5" s="11" t="s">
+        <v>44</v>
+      </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -1180,7 +1382,9 @@
       <c r="A6" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="13"/>
+      <c r="B6" s="13">
+        <v>1</v>
+      </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -1206,7 +1410,9 @@
       <c r="A7" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="11"/>
+      <c r="B7" s="11">
+        <v>1</v>
+      </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -1232,7 +1438,9 @@
       <c r="A8" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="14"/>
+      <c r="B8" s="14" t="s">
+        <v>47</v>
+      </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -1258,7 +1466,9 @@
       <c r="A9" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="14"/>
+      <c r="B9" s="14" t="s">
+        <v>47</v>
+      </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -9500,11 +9710,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K996"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -9512,13 +9722,14 @@
     <col min="1" max="1" width="38.77734375" style="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.77734375" style="12" customWidth="1"/>
     <col min="3" max="3" width="7.88671875" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.21875" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.88671875" style="12" customWidth="1"/>
     <col min="5" max="5" width="10.6640625" style="12" customWidth="1"/>
     <col min="6" max="6" width="18.109375" style="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="31.6640625" style="12" customWidth="1"/>
     <col min="8" max="8" width="7.5546875" style="12" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.88671875" style="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="10.6640625" style="12" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" style="12" customWidth="1"/>
+    <col min="11" max="11" width="63.44140625" style="12" customWidth="1"/>
     <col min="12" max="26" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -9532,87 +9743,345 @@
       <c r="C1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="I1" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="J1" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="K1" s="22" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="57.6">
-      <c r="A2" s="25" t="s">
+    <row r="2" spans="1:11" ht="100.8">
+      <c r="A2" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="K2" s="25" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="49.8" customHeight="1">
-      <c r="B3" s="18"/>
-      <c r="I3" s="17"/>
+      <c r="I2" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="28.8">
+      <c r="A3" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="4" spans="1:11" ht="50.4" customHeight="1">
-      <c r="A4" s="17"/>
-      <c r="B4" s="18"/>
+      <c r="A4" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>57</v>
+      </c>
       <c r="D4" s="17"/>
       <c r="E4" s="17"/>
-      <c r="I4" s="17"/>
-    </row>
-    <row r="5" spans="1:11" ht="14.4">
-      <c r="A5" s="17"/>
-      <c r="B5" s="18"/>
+      <c r="G4" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="28.8">
+      <c r="A5" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>60</v>
+      </c>
       <c r="D5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="K5" s="18"/>
-    </row>
-    <row r="6" spans="1:11" ht="14.25" customHeight="1"/>
-    <row r="7" spans="1:11" ht="14.25" customHeight="1"/>
-    <row r="8" spans="1:11" ht="14.25" customHeight="1"/>
-    <row r="9" spans="1:11" ht="14.25" customHeight="1"/>
-    <row r="10" spans="1:11" ht="14.25" customHeight="1"/>
-    <row r="11" spans="1:11" ht="14.25" customHeight="1"/>
-    <row r="12" spans="1:11" ht="14.25" customHeight="1"/>
-    <row r="13" spans="1:11" ht="14.25" customHeight="1"/>
-    <row r="14" spans="1:11" ht="14.25" customHeight="1"/>
-    <row r="15" spans="1:11" ht="14.25" customHeight="1"/>
-    <row r="16" spans="1:11" ht="14.25" customHeight="1"/>
-    <row r="17" ht="14.25" customHeight="1"/>
-    <row r="18" ht="14.25" customHeight="1"/>
-    <row r="19" ht="14.25" customHeight="1"/>
-    <row r="20" ht="14.25" customHeight="1"/>
-    <row r="21" ht="14.25" customHeight="1"/>
-    <row r="22" ht="14.25" customHeight="1"/>
-    <row r="23" ht="14.25" customHeight="1"/>
-    <row r="24" ht="14.25" customHeight="1"/>
-    <row r="25" ht="14.25" customHeight="1"/>
-    <row r="26" ht="14.25" customHeight="1"/>
-    <row r="27" ht="14.25" customHeight="1"/>
-    <row r="28" ht="14.25" customHeight="1"/>
-    <row r="29" ht="14.25" customHeight="1"/>
-    <row r="30" ht="14.25" customHeight="1"/>
-    <row r="31" ht="14.25" customHeight="1"/>
-    <row r="32" ht="14.25" customHeight="1"/>
+      <c r="G5" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="K5" s="39" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="43.2">
+      <c r="A6" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="G6" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="28.8">
+      <c r="A7" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="17"/>
+      <c r="G7" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="K7" s="39" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="72">
+      <c r="A8" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="G8" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A9" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="G9" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="K9" s="39" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="86.4">
+      <c r="A10" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="G10" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="86.4">
+      <c r="A11" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B11" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="G11" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="K11" s="39" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="86.4">
+      <c r="A12" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="G12" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="86.4">
+      <c r="A13" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B13" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="G13" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="K13" s="39" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="86.4">
+      <c r="A14" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="G14" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A15" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B15" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="G15" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="K15" s="39" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="72">
+      <c r="A16" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="G16" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="K16" s="12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="72">
+      <c r="A17" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="B17" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="G17" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="K17" s="39" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="14.25" customHeight="1"/>
+    <row r="19" spans="1:11" ht="14.25" customHeight="1"/>
+    <row r="20" spans="1:11" ht="14.25" customHeight="1"/>
+    <row r="21" spans="1:11" ht="14.25" customHeight="1"/>
+    <row r="22" spans="1:11" ht="14.25" customHeight="1"/>
+    <row r="23" spans="1:11" ht="14.25" customHeight="1"/>
+    <row r="24" spans="1:11" ht="14.25" customHeight="1"/>
+    <row r="25" spans="1:11" ht="14.25" customHeight="1"/>
+    <row r="26" spans="1:11" ht="14.25" customHeight="1"/>
+    <row r="27" spans="1:11" ht="14.25" customHeight="1"/>
+    <row r="28" spans="1:11" ht="14.25" customHeight="1"/>
+    <row r="29" spans="1:11" ht="14.25" customHeight="1"/>
+    <row r="30" spans="1:11" ht="14.25" customHeight="1"/>
+    <row r="31" spans="1:11" ht="14.25" customHeight="1"/>
+    <row r="32" spans="1:11" ht="14.25" customHeight="1"/>
     <row r="33" ht="14.25" customHeight="1"/>
     <row r="34" ht="14.25" customHeight="1"/>
     <row r="35" ht="14.25" customHeight="1"/>
@@ -11626,8 +12095,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="14.25" customHeight="1">
-      <c r="A1" s="22" t="s">
-        <v>31</v>
+      <c r="A1" s="21" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="14.25" customHeight="1"/>
@@ -12626,10 +13095,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D989"/>
+  <dimension ref="A1:D990"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B2"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -12647,102 +13116,126 @@
         <v>15</v>
       </c>
       <c r="C1" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="D1" s="26" t="s">
-        <v>37</v>
+        <v>32</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="14.25" customHeight="1" thickBot="1">
       <c r="A2" s="33"/>
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A3" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="41" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A4" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A5" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="40" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="16.2" customHeight="1" thickBot="1">
+      <c r="A6" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="37"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="28"/>
+    </row>
+    <row r="7" spans="1:4" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A7" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+    </row>
+    <row r="8" spans="1:4" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A8" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+    </row>
+    <row r="9" spans="1:4" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A9" s="29" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A3" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A4" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="16.2" customHeight="1" thickBot="1">
-      <c r="A5" s="36" t="s">
+      <c r="B9" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+    </row>
+    <row r="10" spans="1:4" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A10" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="29"/>
-    </row>
-    <row r="6" spans="1:4" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A6" s="30" t="s">
+      <c r="B10" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+    </row>
+    <row r="11" spans="1:4" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A11" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-    </row>
-    <row r="7" spans="1:4" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A7" s="30" t="s">
+      <c r="B11" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+    </row>
+    <row r="12" spans="1:4" ht="64.2" customHeight="1">
+      <c r="A12" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-    </row>
-    <row r="8" spans="1:4" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A8" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" s="31"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-    </row>
-    <row r="9" spans="1:4" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A9" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-    </row>
-    <row r="10" spans="1:4" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A10" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-    </row>
-    <row r="11" spans="1:4" ht="64.2" customHeight="1">
-      <c r="A11" s="19" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="14.25" customHeight="1"/>
+      <c r="B12" s="42"/>
+    </row>
     <row r="13" spans="1:4" ht="14.25" customHeight="1"/>
     <row r="14" spans="1:4" ht="14.25" customHeight="1"/>
     <row r="15" spans="1:4" ht="14.25" customHeight="1"/>
@@ -13720,12 +14213,13 @@
     <row r="987" ht="14.25" customHeight="1"/>
     <row r="988" ht="14.25" customHeight="1"/>
     <row r="989" ht="14.25" customHeight="1"/>
+    <row r="990" ht="14.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
-    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>

--- a/i_codebooks/D5_DU_for_Template_1.xlsx
+++ b/i_codebooks/D5_DU_for_Template_1.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20406"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rosgin2\Documents\DP3-MS-SLE\i_codebooks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Davide\Documents\Git repositories\Work\DP3-MS-SLE - Copy\i_codebooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0055EF1-231A-48FA-9039-62BD24A0F548}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8784" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="103">
   <si>
     <t>medatata_name</t>
   </si>
@@ -120,19 +121,10 @@
     <t>n1_1</t>
   </si>
   <si>
-    <t>n2_3 (p2_3)</t>
-  </si>
-  <si>
     <t>D3_DU_MS-PREGNANCY-COHORT_variables</t>
   </si>
   <si>
     <t>Number of pregnancies in the MS-Pregnancy cohort N (%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of pregnancies since MS diagnosis from women with MS </t>
-  </si>
-  <si>
-    <t>N (%)</t>
   </si>
   <si>
     <r>
@@ -331,15 +323,6 @@
     <t>numbers to be included in Template 1:  Description of the time period between 2 pregnancies in the pregnancy cohort and in the MS-pregnancy cohort (ref: DP3_SAP_DU_MS_V2.2)</t>
   </si>
   <si>
-    <t>3 strata: 
-1) all pregnancies in D3_DU_PREGNANCY-COHORT_variables
-2) pregnancies in D3_DU_PREGNANCY-COHORT_variables with pregnancy_with_MS == 1
-3) pregnancies in D3_DU_PREGNANCY-COHORT_variables with MS_developed_during_pregnancy == 1</t>
-  </si>
-  <si>
-    <t>itself</t>
-  </si>
-  <si>
     <t>1 = all pregnancies in D3_DU_PREGNANCY-COHORT_variables
 2 = pregnancies in D3_DU_PREGNANCY-COHORT_variables with pregnancy_with_MS == 1
 3 = pregnancies in D3_DU_PREGNANCY-COHORT_variables with MS_developed_during_pregnancy == 1</t>
@@ -360,13 +343,7 @@
     <t>n3_2 (p3_2)</t>
   </si>
   <si>
-    <t>n3_3 (p3_3)</t>
-  </si>
-  <si>
     <t>N</t>
-  </si>
-  <si>
-    <t>n1_3</t>
   </si>
   <si>
     <t>n1_2</t>
@@ -527,11 +504,23 @@
   <si>
     <t>identifier of the column in the shell table Template 1</t>
   </si>
+  <si>
+    <t>1 = all pregnancies in D3_DU_PREGNANCY-COHORT_variables
+2 = pregnancies in D3_DU_PREGNANCY-COHORT_variables with pregnancy_with_MS == 1</t>
+  </si>
+  <si>
+    <t>2 strata: 
+1) all pregnancies in D3_DU_PREGNANCY-COHORT_variables
+2) pregnancies in D3_DU_PREGNANCY-COHORT_variables with pregnancy_with_MS == 1</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19">
     <font>
       <sz val="11"/>
@@ -677,7 +666,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -849,17 +838,6 @@
       <right style="medium">
         <color rgb="FFBFBFBF"/>
       </right>
-      <top style="medium">
-        <color rgb="FFBFBFBF"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FFBFBFBF"/>
-      </right>
       <top/>
       <bottom style="medium">
         <color rgb="FFBFBFBF"/>
@@ -894,7 +872,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -956,25 +934,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -989,30 +970,18 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1224,18 +1193,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V1001"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="41.44140625" customWidth="1"/>
-    <col min="2" max="2" width="75.21875" style="12" customWidth="1"/>
-    <col min="3" max="26" width="10.6640625" customWidth="1"/>
+    <col min="1" max="1" width="41.42578125" customWidth="1"/>
+    <col min="2" max="2" width="75.28515625" style="12" customWidth="1"/>
+    <col min="3" max="26" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="14.25" customHeight="1">
@@ -1266,7 +1235,7 @@
       <c r="U1" s="2"/>
       <c r="V1" s="2"/>
     </row>
-    <row r="2" spans="1:22" ht="15.6">
+    <row r="2" spans="1:22" ht="15.75">
       <c r="A2" s="19" t="s">
         <v>19</v>
       </c>
@@ -1294,12 +1263,12 @@
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
     </row>
-    <row r="3" spans="1:22" ht="46.8">
+    <row r="3" spans="1:22" ht="47.25">
       <c r="A3" s="8" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -1322,12 +1291,12 @@
       <c r="U3" s="2"/>
       <c r="V3" s="2"/>
     </row>
-    <row r="4" spans="1:22" ht="72">
+    <row r="4" spans="1:22" ht="60">
       <c r="A4" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>43</v>
+        <v>101</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -1355,7 +1324,7 @@
         <v>22</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>44</v>
+        <v>102</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -1439,7 +1408,7 @@
         <v>25</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -1467,7 +1436,7 @@
         <v>26</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -9707,30 +9676,30 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K996"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2:C2"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="38.77734375" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.77734375" style="12" customWidth="1"/>
-    <col min="3" max="3" width="7.88671875" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="43.88671875" style="12" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" style="12" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.6640625" style="12" customWidth="1"/>
-    <col min="8" max="8" width="7.5546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.88671875" style="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.6640625" style="12" customWidth="1"/>
-    <col min="11" max="11" width="63.44140625" style="12" customWidth="1"/>
-    <col min="12" max="26" width="10.6640625" customWidth="1"/>
+    <col min="1" max="1" width="38.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.7109375" style="12" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.85546875" style="12" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="12" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.7109375" style="12" customWidth="1"/>
+    <col min="8" max="8" width="7.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" style="12" customWidth="1"/>
+    <col min="11" max="11" width="63.42578125" style="12" customWidth="1"/>
+    <col min="12" max="26" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="14.25" customHeight="1">
@@ -9768,303 +9737,303 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="100.8">
+    <row r="2" spans="1:11" ht="75">
       <c r="A2" s="12" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="G2" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I2" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="30">
+      <c r="A3" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="50.45" customHeight="1">
+      <c r="A4" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="K2" s="12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="28.8">
-      <c r="A3" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="G3" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="K3" s="12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="50.4" customHeight="1">
-      <c r="A4" s="39" t="s">
-        <v>55</v>
-      </c>
       <c r="B4" s="12" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D4" s="17"/>
       <c r="E4" s="17"/>
       <c r="G4" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="28.8">
-      <c r="A5" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="B5" s="39" t="s">
-        <v>65</v>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="45">
+      <c r="A5" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>58</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D5" s="17"/>
       <c r="G5" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="K5" s="39" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="43.2">
-      <c r="A6" s="39" t="s">
-        <v>63</v>
+        <v>43</v>
+      </c>
+      <c r="K5" s="29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="45">
+      <c r="A6" s="29" t="s">
+        <v>56</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D6" s="17"/>
       <c r="E6" s="17"/>
       <c r="G6" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="28.8">
-      <c r="A7" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="B7" s="39" t="s">
-        <v>68</v>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="45">
+      <c r="A7" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>61</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D7" s="17"/>
       <c r="G7" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="K7" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7" s="29" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="90">
+      <c r="A8" s="12" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" ht="72">
-      <c r="A8" s="12" t="s">
-        <v>76</v>
-      </c>
       <c r="B8" s="12" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G8" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="14.25" customHeight="1">
       <c r="A9" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="B9" s="39" t="s">
-        <v>85</v>
+        <v>70</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>78</v>
       </c>
       <c r="G9" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="K9" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="K9" s="29" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="90">
+      <c r="A10" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B10" s="12" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" ht="86.4">
-      <c r="A10" s="12" t="s">
+      <c r="G10" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="90">
+      <c r="A11" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="G11" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="K11" s="29" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="90">
+      <c r="A12" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="G12" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="90">
+      <c r="A13" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="B10" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="G10" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="I10" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="K10" s="12" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="86.4">
-      <c r="A11" s="12" t="s">
+      <c r="B13" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="G13" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="K13" s="29" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="90">
+      <c r="A14" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="B11" s="39" t="s">
-        <v>87</v>
-      </c>
-      <c r="G11" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="I11" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="K11" s="39" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="86.4">
-      <c r="A12" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="G12" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="I12" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="K12" s="12" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="86.4">
-      <c r="A13" s="12" t="s">
+      <c r="B14" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="B13" s="39" t="s">
-        <v>95</v>
-      </c>
-      <c r="G13" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="I13" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="K13" s="39" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="86.4">
-      <c r="A14" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>96</v>
-      </c>
       <c r="G14" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="K14" s="12" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="14.25" customHeight="1">
       <c r="A15" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="B15" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="G15" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="K15" s="29" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="90">
+      <c r="A16" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="B16" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="B15" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="G15" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="I15" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="K15" s="39" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="72">
-      <c r="A16" s="12" t="s">
+      <c r="G16" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="K16" s="12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="90">
+      <c r="A17" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="B17" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="B16" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="G16" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="I16" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="K16" s="12" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="72">
-      <c r="A17" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="B17" s="39" t="s">
-        <v>99</v>
-      </c>
       <c r="G17" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I17" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="K17" s="39" t="s">
-        <v>102</v>
+        <v>43</v>
+      </c>
+      <c r="K17" s="29" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="14.25" customHeight="1"/>
@@ -11053,16 +11022,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="26" width="10.6640625" customWidth="1"/>
+    <col min="1" max="26" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="14.25" customHeight="1">
@@ -12081,17 +12050,17 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A989"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="36.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="47.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="26" width="10.6640625" customWidth="1"/>
+    <col min="1" max="1" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="47.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="26" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="14.25" customHeight="1">
@@ -13094,58 +13063,48 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D990"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:C990"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="36.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="61.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="47.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="26" width="10.6640625" customWidth="1"/>
+    <col min="1" max="1" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="25" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" customHeight="1">
-      <c r="A1" s="32"/>
-      <c r="B1" s="34" t="s">
+    <row r="1" spans="1:3" ht="15" customHeight="1">
+      <c r="A1" s="33"/>
+      <c r="B1" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" s="25" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A2" s="33"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="26" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A3" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="B3" s="41" t="s">
+      <c r="C1" s="35" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A2" s="34"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+    </row>
+    <row r="3" spans="1:3" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A3" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3" s="41" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A4" s="27" t="s">
+      <c r="C3" s="31" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A4" s="25" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="20" t="s">
@@ -13154,92 +13113,80 @@
       <c r="C4" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="20" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A5" s="27" t="s">
+    </row>
+    <row r="5" spans="1:3" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A5" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="40" t="s">
-        <v>49</v>
-      </c>
-      <c r="C5" s="40" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" s="40" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="16.2" customHeight="1" thickBot="1">
-      <c r="A6" s="36" t="s">
+      <c r="B5" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="16.149999999999999" customHeight="1" thickBot="1">
+      <c r="A6" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="38"/>
+      <c r="C6" s="39"/>
+    </row>
+    <row r="7" spans="1:3" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A7" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="27"/>
+    </row>
+    <row r="8" spans="1:3" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A8" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="27"/>
+    </row>
+    <row r="9" spans="1:3" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A9" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="28"/>
-    </row>
-    <row r="7" spans="1:4" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A7" s="29" t="s">
+      <c r="B9" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="27"/>
+    </row>
+    <row r="10" spans="1:3" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A10" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-    </row>
-    <row r="8" spans="1:4" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A8" s="29" t="s">
+      <c r="B10" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="27"/>
+    </row>
+    <row r="11" spans="1:3" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A11" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-    </row>
-    <row r="9" spans="1:4" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A9" s="29" t="s">
+      <c r="B11" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="27"/>
+    </row>
+    <row r="12" spans="1:3" ht="64.150000000000006" customHeight="1">
+      <c r="A12" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-    </row>
-    <row r="10" spans="1:4" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A10" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-    </row>
-    <row r="11" spans="1:4" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A11" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-    </row>
-    <row r="12" spans="1:4" ht="64.2" customHeight="1">
-      <c r="A12" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="42"/>
-    </row>
-    <row r="13" spans="1:4" ht="14.25" customHeight="1"/>
-    <row r="14" spans="1:4" ht="14.25" customHeight="1"/>
-    <row r="15" spans="1:4" ht="14.25" customHeight="1"/>
-    <row r="16" spans="1:4" ht="14.25" customHeight="1"/>
+      <c r="B12" s="32"/>
+    </row>
+    <row r="13" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="14" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="15" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="16" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="17" ht="14.25" customHeight="1"/>
     <row r="18" ht="14.25" customHeight="1"/>
     <row r="19" ht="14.25" customHeight="1"/>

--- a/i_codebooks/D5_DU_for_Template_1.xlsx
+++ b/i_codebooks/D5_DU_for_Template_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20406"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20408"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Davide\Documents\Git repositories\Work\DP3-MS-SLE - Copy\i_codebooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0055EF1-231A-48FA-9039-62BD24A0F548}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3899D94A-30FD-48E0-AA0C-F27C37E7C4B2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8790" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="102">
   <si>
     <t>medatata_name</t>
   </si>
@@ -323,11 +323,6 @@
     <t>numbers to be included in Template 1:  Description of the time period between 2 pregnancies in the pregnancy cohort and in the MS-pregnancy cohort (ref: DP3_SAP_DU_MS_V2.2)</t>
   </si>
   <si>
-    <t>1 = all pregnancies in D3_DU_PREGNANCY-COHORT_variables
-2 = pregnancies in D3_DU_PREGNANCY-COHORT_variables with pregnancy_with_MS == 1
-3 = pregnancies in D3_DU_PREGNANCY-COHORT_variables with MS_developed_during_pregnancy == 1</t>
-  </si>
-  <si>
     <t>n1_</t>
   </si>
   <si>
@@ -521,11 +516,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -872,112 +874,115 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1196,7 +1201,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -1296,7 +1301,7 @@
         <v>21</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -1324,7 +1329,7 @@
         <v>22</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -1408,7 +1413,7 @@
         <v>25</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -1436,7 +1441,7 @@
         <v>26</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -9679,11 +9684,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K996"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -9739,56 +9744,56 @@
     </row>
     <row r="2" spans="1:11" ht="75">
       <c r="A2" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B2" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>99</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>100</v>
       </c>
       <c r="G2" s="24" t="s">
         <v>30</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>40</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="30">
       <c r="A3" s="29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G3" s="24" t="s">
         <v>30</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="50.45" customHeight="1">
       <c r="A4" s="29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D4" s="17"/>
       <c r="E4" s="17"/>
@@ -9796,42 +9801,42 @@
         <v>30</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="45">
       <c r="A5" s="29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D5" s="17"/>
       <c r="G5" s="24" t="s">
         <v>30</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K5" s="29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="45">
       <c r="A6" s="29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D6" s="17"/>
       <c r="E6" s="17"/>
@@ -9839,201 +9844,201 @@
         <v>30</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="45">
       <c r="A7" s="29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D7" s="17"/>
       <c r="G7" s="24" t="s">
         <v>30</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K7" s="29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="90">
       <c r="A8" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G8" s="24" t="s">
         <v>30</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="K8" s="12" t="s">
-        <v>71</v>
+        <v>42</v>
+      </c>
+      <c r="K8" s="40" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="14.25" customHeight="1">
       <c r="A9" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G9" s="24" t="s">
         <v>30</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K9" s="29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="90">
       <c r="A10" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G10" s="24" t="s">
         <v>30</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K10" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="90">
       <c r="A11" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G11" s="24" t="s">
         <v>30</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K11" s="29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="90">
       <c r="A12" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G12" s="24" t="s">
         <v>30</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K12" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="90">
       <c r="A13" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G13" s="24" t="s">
         <v>30</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K13" s="29" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="90">
       <c r="A14" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G14" s="24" t="s">
         <v>30</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K14" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="14.25" customHeight="1">
       <c r="A15" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G15" s="24" t="s">
         <v>30</v>
       </c>
       <c r="I15" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K15" s="29" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="90">
       <c r="A16" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G16" s="24" t="s">
         <v>30</v>
       </c>
       <c r="I16" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K16" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="90">
       <c r="A17" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G17" s="24" t="s">
         <v>30</v>
       </c>
       <c r="I17" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K17" s="29" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="14.25" customHeight="1"/>
@@ -13066,8 +13071,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C990"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -13094,13 +13099,13 @@
     </row>
     <row r="3" spans="1:3" ht="14.25" customHeight="1" thickBot="1">
       <c r="A3" s="28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B3" s="31" t="s">
         <v>29</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14.25" customHeight="1" thickBot="1">
@@ -13119,10 +13124,10 @@
         <v>17</v>
       </c>
       <c r="B5" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="30" t="s">
         <v>44</v>
-      </c>
-      <c r="C5" s="30" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="16.149999999999999" customHeight="1" thickBot="1">
@@ -13137,7 +13142,7 @@
         <v>33</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C7" s="27"/>
     </row>
@@ -13146,7 +13151,7 @@
         <v>34</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C8" s="27"/>
     </row>
@@ -13155,7 +13160,7 @@
         <v>35</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C9" s="27"/>
     </row>
@@ -13164,7 +13169,7 @@
         <v>36</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C10" s="27"/>
     </row>
@@ -13173,7 +13178,7 @@
         <v>37</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C11" s="27"/>
     </row>
